--- a/Shading Nets/my_graphs/Water Change by Activities.xlsx
+++ b/Shading Nets/my_graphs/Water Change by Activities.xlsx
@@ -432,13 +432,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-5.108785167573515E-05</v>
+        <v>-9.507616960391374E-08</v>
       </c>
       <c r="C2">
-        <v>-0.001303249847047994</v>
+        <v>-2.425390768223679E-06</v>
       </c>
       <c r="D2">
-        <v>-3.508839891819271E-05</v>
+        <v>-6.53006626549768E-08</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,13 +446,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.007307986108482822</v>
+        <v>-1.360040216269454E-05</v>
       </c>
       <c r="C3">
-        <v>-0.1415496883189462</v>
+        <v>-0.0002634286188367696</v>
       </c>
       <c r="D3">
-        <v>-0.01023118116313526</v>
+        <v>-1.904056416179856E-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,13 +460,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.003641284761641383</v>
+        <v>-6.776550532494596E-06</v>
       </c>
       <c r="C4">
-        <v>-13.12880480765944</v>
+        <v>-0.02443313693765958</v>
       </c>
       <c r="D4">
-        <v>-0.0323237043012039</v>
+        <v>-6.015547531568188E-05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,13 +474,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-2.451031005268334E-06</v>
+        <v>-4.56144888527632E-09</v>
       </c>
       <c r="C5">
-        <v>-3.319897539810768E-05</v>
+        <v>-6.178437850223872E-08</v>
       </c>
       <c r="D5">
-        <v>-8.130151907259631E-07</v>
+        <v>-1.51304785367401E-09</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -488,13 +488,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-8.449005110688912E-05</v>
+        <v>-1.572387601789238E-07</v>
       </c>
       <c r="C6">
-        <v>-0.002155339137773993</v>
+        <v>-4.011156924832449E-06</v>
       </c>
       <c r="D6">
-        <v>-5.802985486000334E-05</v>
+        <v>-1.07995465792321E-07</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -502,13 +502,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-7.041146525921249E-05</v>
+        <v>-1.310380426389202E-07</v>
       </c>
       <c r="C7">
-        <v>-0.1434516456138226</v>
+        <v>-0.0002669682362466119</v>
       </c>
       <c r="D7">
-        <v>-0.0006250429537146829</v>
+        <v>-1.163225476830121E-06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -516,13 +516,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002392613294659895</v>
+        <v>-4.452731786841468E-06</v>
       </c>
       <c r="C8">
-        <v>-0.1130001380879548</v>
+        <v>-0.0002102969629049767</v>
       </c>
       <c r="D8">
-        <v>-0.0007281906132448057</v>
+        <v>-1.355186526552643E-06</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -530,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-8.279651696252444E-06</v>
+        <v>-1.540870364635794E-08</v>
       </c>
       <c r="C9">
-        <v>-0.0002555171618467966</v>
+        <v>-4.755258231625703E-07</v>
       </c>
       <c r="D9">
-        <v>-0.0004727420085544054</v>
+        <v>-8.797884163413983E-07</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -544,13 +544,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.0417471910399172</v>
+        <v>-7.769289379666589E-05</v>
       </c>
       <c r="C10">
-        <v>-0.8080349604733783</v>
+        <v>-0.001503779600170674</v>
       </c>
       <c r="D10">
-        <v>-0.05839552672875925</v>
+        <v>-0.0001086759933741632</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -558,13 +558,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-6.997039455391985E-06</v>
+        <v>-1.302172103478938E-08</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>-0.0001224211185473223</v>
+        <v>-2.278297301927523E-07</v>
       </c>
     </row>
   </sheetData>
